--- a/PMS-SEGMENT-LAYOUT_28th jan - Copy.xlsx
+++ b/PMS-SEGMENT-LAYOUT_28th jan - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10732370\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C769F573-4C8B-4E35-A3B0-EE993DED462C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9164DAE-93AD-48C3-9523-A8BAD6046528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="731" xr2:uid="{0FCDBAF2-ECE5-442C-BE1E-02F15CFC0D4E}"/>
   </bookViews>
@@ -39,19 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="184">
-  <si>
-    <t>Data Item</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Reason Ammended</t>
-  </si>
-  <si>
-    <t>Sequence Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="139">
   <si>
     <t xml:space="preserve">2 ID                </t>
   </si>
@@ -104,9 +92,6 @@
     <t xml:space="preserve">2 FILLER2           </t>
   </si>
   <si>
-    <t>ZIP Code</t>
-  </si>
-  <si>
     <t>Send Blank spaces 2 CHAR</t>
   </si>
   <si>
@@ -122,75 +107,16 @@
     <t>Send Blank spaces 3 CHAR</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>NAICS Code</t>
-  </si>
-  <si>
     <t>Send blank spaces 1 CHAR</t>
   </si>
   <si>
     <t>Send constant value 45</t>
   </si>
   <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">45-94 PART 1 AND 4 STATISTICAL AND ACCOUNTING
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COVERAGE DATA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DO NOT PRINT FOR SEG45-1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LTIM Comments
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(If there is no premium change on any transaction, then 45-1 segment would not be generated) </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">2 INSURANCELINE     </t>
   </si>
   <si>
-    <t>INSURANCE LINE</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 RISKUNIT,         </t>
-  </si>
-  <si>
-    <t>Risk Unit</t>
   </si>
   <si>
     <t xml:space="preserve">  3 UNIT            </t>
@@ -246,9 +172,6 @@
     <t xml:space="preserve">2 MAJORPERIL        </t>
   </si>
   <si>
-    <t>Major Peril</t>
-  </si>
-  <si>
     <t>In Progress. Refer 'Major Peril' tab in this spreadsheet</t>
   </si>
   <si>
@@ -305,15 +228,9 @@
     <t xml:space="preserve">2 VARIABLEKEY       </t>
   </si>
   <si>
-    <t>Variable Key</t>
-  </si>
-  <si>
     <t>Send Blank spaces 20 CHAR</t>
   </si>
   <si>
-    <t>Entry Date</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">(CV) </t>
     </r>
@@ -666,19 +583,7 @@
     </r>
   </si>
   <si>
-    <t>Coverage expiration Year</t>
-  </si>
-  <si>
-    <t>Coverage expiration Month</t>
-  </si>
-  <si>
-    <t>Coverage expiration Day</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 ACTRAN            </t>
-  </si>
-  <si>
-    <t>Account Transaction</t>
   </si>
   <si>
     <r>
@@ -716,9 +621,6 @@
 22 reverses 10,11, and 12
 24 reverses 14 (On Revised Interim Audit '24' back off premiums/ '14' onset premiums)</t>
     </r>
-  </si>
-  <si>
-    <t>Written Premium</t>
   </si>
   <si>
     <t>This is the written premium of the transaction for each coverage
@@ -736,31 +638,19 @@
     <t xml:space="preserve">2 SUBPAY            </t>
   </si>
   <si>
-    <t>Subsequent Pay</t>
-  </si>
-  <si>
     <t>Send a constant value 0000000000{</t>
   </si>
   <si>
     <t xml:space="preserve">2 ORIGINALPREM      </t>
   </si>
   <si>
-    <t>Original Premium</t>
-  </si>
-  <si>
     <t>Send all 0's</t>
   </si>
   <si>
     <t xml:space="preserve">2 ESTTERMPREM       </t>
   </si>
   <si>
-    <t>Estimated Term Premium</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 COMMISSION,       </t>
-  </si>
-  <si>
-    <t>Agent Commission Rate Percentage</t>
   </si>
   <si>
     <r>
@@ -798,33 +688,21 @@
     <t xml:space="preserve">     3 TOTALRATE    </t>
   </si>
   <si>
-    <t>Total Commission Rate</t>
-  </si>
-  <si>
     <t>Send Constant value 000000</t>
   </si>
   <si>
     <t xml:space="preserve">     3 TOTAMOUNT    </t>
   </si>
   <si>
-    <t>Total Commission Amount</t>
-  </si>
-  <si>
     <t>Send Blank spaces 11 CHAR</t>
   </si>
   <si>
     <t xml:space="preserve">2 ACCTENTERED,      </t>
   </si>
   <si>
-    <t>Account Entered Date</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 ANNUALSTATELINE   </t>
   </si>
   <si>
-    <t>ANNUAL STATEMENT LINE</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 REINSURANCE,      </t>
   </si>
   <si>
@@ -847,9 +725,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 STATE             </t>
-  </si>
-  <si>
-    <t>State BUREAU Code</t>
   </si>
   <si>
     <t>Send the Bureau code for the state selected as Primary state on the Policy. Send the 2 CHAR bureau code. E.g., Alabama - 01, Alaska - 54. Refer BITCO PMS Codes 04 -107 for the list.
@@ -857,9 +732,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 TERRITORY         </t>
-  </si>
-  <si>
-    <t>Location Territory Code</t>
   </si>
   <si>
     <t>For IM &amp; Crime, it will always be ' 999' (Confirmed with Craig M on 01/19)
@@ -874,9 +746,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 TAXLOCATIONS      </t>
-  </si>
-  <si>
-    <t>Tax location code</t>
   </si>
   <si>
     <r>
@@ -978,13 +847,7 @@
     <t xml:space="preserve">     3 SPECIALFILE  </t>
   </si>
   <si>
-    <t>Special File ID</t>
-  </si>
-  <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>Endorsment Number</t>
   </si>
   <si>
     <r>
@@ -1031,9 +894,6 @@
     <t xml:space="preserve">     3 SURCHARGEID  </t>
   </si>
   <si>
-    <t>Surcharge ID</t>
-  </si>
-  <si>
     <t>Map definition for each as given in Reference code manual. The description notes the state and the LOB for most of them
 Then map the code with surcharge triggered from Duck policy.
 Wherever code is 'bb', those surcharges are not required to be mapped. Send blank spaces for those
@@ -1042,9 +902,6 @@
   </si>
   <si>
     <t xml:space="preserve">     3 TBSPECIFIC   </t>
-  </si>
-  <si>
-    <t>Type Bureau Specific</t>
   </si>
   <si>
     <r>
@@ -1170,19 +1027,10 @@
     <t xml:space="preserve">     3 STATBRKDOWN  </t>
   </si>
   <si>
-    <t>statistical breakdown line</t>
-  </si>
-  <si>
     <t xml:space="preserve">     3 USERDEFINED  </t>
   </si>
   <si>
-    <t>User Defined</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 SECTION           </t>
-  </si>
-  <si>
-    <t>Section Number</t>
   </si>
   <si>
     <t>For all LOBs except Umbrella, send '0'
@@ -1192,15 +1040,9 @@
     <t xml:space="preserve">2 LAYERRATING       </t>
   </si>
   <si>
-    <t>Layer Rating</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 TYPEBUREAU        </t>
   </si>
   <si>
-    <t>TYPE BUREAU</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1341,9 +1183,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 CLASS             </t>
-  </si>
-  <si>
-    <t>Class Code</t>
   </si>
   <si>
     <t xml:space="preserve">This is the class code selected on the Policy for all LOBs except Auto
@@ -1357,9 +1196,6 @@
     <t xml:space="preserve">2 EXPOSURE          </t>
   </si>
   <si>
-    <t>Exposure Amount</t>
-  </si>
-  <si>
     <t>On Commercial Auto for e.g., exposure is typically reported in car months, so for a 1 year policy the car exposure is 12 months. 
 Similarly for MA Auto, it will the code corresponding to the classes selected in policy.
 This information is already present in regualtory Db (in Insights) and should flow correctly for all different combinations for Auto and MA Auto.
@@ -1369,9 +1205,6 @@
     <t xml:space="preserve">2 SUBLINE           </t>
   </si>
   <si>
-    <t>STAT Codes</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1394,9 +1227,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 BUREAUCODES       </t>
-  </si>
-  <si>
-    <t>BUREAU CODES</t>
   </si>
   <si>
     <t>each type bureau has its own layout for those 34 characters.   I have provided a separate spreadsheet (Type Bureau) that shows the layout for each type bureau</t>
@@ -1411,9 +1241,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 ARSOFFSETPREM     </t>
-  </si>
-  <si>
-    <t>OBSOLETE</t>
   </si>
   <si>
     <t xml:space="preserve">2 ARSOFFSETCOMM     </t>
@@ -1450,9 +1277,6 @@
     <t xml:space="preserve">2 CFORDINACELAW     </t>
   </si>
   <si>
-    <t>Commercial Fire Ordinance Law</t>
-  </si>
-  <si>
     <t>This coverages shows on Property screen
 Updated logic as per email on 05/29:
 This field should send whatever is stored in Regulatory DB OOB. Refer Page 171 of ISO manual</t>
@@ -1478,9 +1302,6 @@
   </si>
   <si>
     <t xml:space="preserve">    3 SCHRATEMODFACTOR</t>
-  </si>
-  <si>
-    <t>Schedule Rate Modification Factor</t>
   </si>
   <si>
     <t xml:space="preserve">    3 LINEPREMIUM     </t>
@@ -1587,12 +1408,18 @@
       <t>For Tax and Surcharge record, send 100</t>
     </r>
   </si>
+  <si>
+    <t>Field name</t>
+  </si>
+  <si>
+    <t>Field Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1692,13 +1519,6 @@
     <font>
       <strike/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1836,11 +1656,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1848,7 +1665,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1936,10 +1752,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2242,881 +2054,703 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C15" sqref="C15"/>
       <selection pane="topRight" activeCell="C15" sqref="C15"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.1796875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="75.1796875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="368.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="303.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="27"/>
+    </row>
+    <row r="31" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="27"/>
+    </row>
+    <row r="32" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="28"/>
+    </row>
+    <row r="33" spans="1:2" ht="295.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="19" customFormat="1" ht="266.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="204" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="258.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="66" spans="1:2" s="12" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A66" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="12" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A67" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="12" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="11" t="s">
+      <c r="B71" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="17"/>
+    </row>
+    <row r="73" spans="1:2" s="5" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="17"/>
+    </row>
+    <row r="74" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="1:2" ht="214.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="16"/>
+    </row>
+    <row r="84" spans="1:2" ht="274.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="368.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="86" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="303.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="29"/>
-    </row>
-    <row r="31" spans="1:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="29"/>
-    </row>
-    <row r="32" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="30"/>
-    </row>
-    <row r="33" spans="1:3" ht="295.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="21" customFormat="1" ht="266.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="204" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="258.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="11"/>
-    </row>
-    <row r="63" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A66" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A67" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="19"/>
-    </row>
-    <row r="73" spans="1:3" s="7" customFormat="1" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="19"/>
-    </row>
-    <row r="74" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="11"/>
-    </row>
-    <row r="76" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="11"/>
-    </row>
-    <row r="78" spans="1:3" ht="214.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="18"/>
-    </row>
-    <row r="84" spans="1:3" ht="274.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3124,12 +2758,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="29d72bc2-6c2d-453b-80ea-dd73789d13cb" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="39664e8d-417b-435d-ad9e-da078e74f70b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3362,20 +2998,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="29d72bc2-6c2d-453b-80ea-dd73789d13cb" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="39664e8d-417b-435d-ad9e-da078e74f70b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2C69381-6773-44B2-BBA5-BB20BAF67AFC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF6D12DC-509D-40B6-99B1-E88F8EE1CFE2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="29d72bc2-6c2d-453b-80ea-dd73789d13cb"/>
+    <ds:schemaRef ds:uri="39664e8d-417b-435d-ad9e-da078e74f70b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3400,12 +3037,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF6D12DC-509D-40B6-99B1-E88F8EE1CFE2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2C69381-6773-44B2-BBA5-BB20BAF67AFC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="29d72bc2-6c2d-453b-80ea-dd73789d13cb"/>
-    <ds:schemaRef ds:uri="39664e8d-417b-435d-ad9e-da078e74f70b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>